--- a/downloaded_files/SBES270_Tutorial-35375.xlsx
+++ b/downloaded_files/SBES270_Tutorial-35375.xlsx
@@ -255,7 +255,7 @@
     <x:t>محمد حاتم فوزى محمود المتناوى</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed hatem fawzy Mahmoud</x:t>
+    <x:t>Mohamed Hatem Fawzy Mahmoud El-Metnawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220079</x:t>
@@ -282,7 +282,7 @@
     <x:t>مروان محمد محمد رمزي عبدالرحمن</x:t>
   </x:si>
   <x:si>
-    <x:t>Marwan mohamed mohamed ramzy</x:t>
+    <x:t>Marwan Mohamed Mohamed Ramzy Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1220283</x:t>
